--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Cd81</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H2">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I2">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J2">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>92.2256439706031</v>
+        <v>105.466137</v>
       </c>
       <c r="N2">
-        <v>92.2256439706031</v>
+        <v>316.398411</v>
       </c>
       <c r="O2">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862459</v>
       </c>
       <c r="P2">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862458</v>
       </c>
       <c r="Q2">
-        <v>22.54403811441165</v>
+        <v>27.384880113493</v>
       </c>
       <c r="R2">
-        <v>22.54403811441165</v>
+        <v>246.463921021437</v>
       </c>
       <c r="S2">
-        <v>0.001749288374397692</v>
+        <v>0.001219962648949238</v>
       </c>
       <c r="T2">
-        <v>0.001749288374397692</v>
+        <v>0.001219962648949238</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H3">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I3">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J3">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>109.192030882594</v>
+        <v>109.467855</v>
       </c>
       <c r="N3">
-        <v>109.192030882594</v>
+        <v>328.403565</v>
       </c>
       <c r="O3">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="P3">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="Q3">
-        <v>26.69137563075035</v>
+        <v>28.423948868595</v>
       </c>
       <c r="R3">
-        <v>26.69137563075035</v>
+        <v>255.815539817355</v>
       </c>
       <c r="S3">
-        <v>0.002071098037121641</v>
+        <v>0.001266251881024059</v>
       </c>
       <c r="T3">
-        <v>0.002071098037121641</v>
+        <v>0.001266251881024058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H4">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I4">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J4">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.8236318890376</v>
+        <v>8.872125666666667</v>
       </c>
       <c r="N4">
-        <v>6.8236318890376</v>
+        <v>26.616377</v>
       </c>
       <c r="O4">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546648</v>
       </c>
       <c r="P4">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546647</v>
       </c>
       <c r="Q4">
-        <v>1.667998300279827</v>
+        <v>2.303697704728778</v>
       </c>
       <c r="R4">
-        <v>1.667998300279827</v>
+        <v>20.733279342559</v>
       </c>
       <c r="S4">
-        <v>0.0001294271248294844</v>
+        <v>0.000102626892744893</v>
       </c>
       <c r="T4">
-        <v>0.0001294271248294844</v>
+        <v>0.000102626892744893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H5">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I5">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J5">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9025960634394</v>
+        <v>17.47952633333334</v>
       </c>
       <c r="N5">
-        <v>13.9025960634394</v>
+        <v>52.438579</v>
       </c>
       <c r="O5">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="P5">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="Q5">
-        <v>3.398411136531072</v>
+        <v>4.538658063099223</v>
       </c>
       <c r="R5">
-        <v>3.398411136531072</v>
+        <v>40.847922567893</v>
       </c>
       <c r="S5">
-        <v>0.0002636972605523203</v>
+        <v>0.0002021916214489898</v>
       </c>
       <c r="T5">
-        <v>0.0002636972605523203</v>
+        <v>0.0002021916214489897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H6">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I6">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J6">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.7848755068631</v>
+        <v>15.961975</v>
       </c>
       <c r="N6">
-        <v>15.7848755068631</v>
+        <v>47.885925</v>
       </c>
       <c r="O6">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885857</v>
       </c>
       <c r="P6">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885856</v>
       </c>
       <c r="Q6">
-        <v>3.858523722224084</v>
+        <v>4.144617259941667</v>
       </c>
       <c r="R6">
-        <v>3.858523722224084</v>
+        <v>37.301555339475</v>
       </c>
       <c r="S6">
-        <v>0.000299399364717604</v>
+        <v>0.0001846375894422066</v>
       </c>
       <c r="T6">
-        <v>0.000299399364717604</v>
+        <v>0.0001846375894422065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.244444355645785</v>
+        <v>0.2596556666666667</v>
       </c>
       <c r="H7">
-        <v>0.244444355645785</v>
+        <v>0.778967</v>
       </c>
       <c r="I7">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711503</v>
       </c>
       <c r="J7">
-        <v>0.006057798106111178</v>
+        <v>0.004011804743711502</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.4492839651403</v>
+        <v>89.57410466666666</v>
       </c>
       <c r="N7">
-        <v>81.4492839651403</v>
+        <v>268.722314</v>
       </c>
       <c r="O7">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="P7">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="Q7">
-        <v>19.90981773666929</v>
+        <v>23.25842386329311</v>
       </c>
       <c r="R7">
-        <v>19.90981773666929</v>
+        <v>209.325814769638</v>
       </c>
       <c r="S7">
-        <v>0.001544887944492436</v>
+        <v>0.001036134110102117</v>
       </c>
       <c r="T7">
-        <v>0.001544887944492436</v>
+        <v>0.001036134110102117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H8">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I8">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J8">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>92.2256439706031</v>
+        <v>105.466137</v>
       </c>
       <c r="N8">
-        <v>92.2256439706031</v>
+        <v>316.398411</v>
       </c>
       <c r="O8">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862459</v>
       </c>
       <c r="P8">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862458</v>
       </c>
       <c r="Q8">
-        <v>1279.81966042318</v>
+        <v>1474.82299144124</v>
       </c>
       <c r="R8">
-        <v>1279.81966042318</v>
+        <v>13273.40692297116</v>
       </c>
       <c r="S8">
-        <v>0.09930668329879633</v>
+        <v>0.06570154610548702</v>
       </c>
       <c r="T8">
-        <v>0.09930668329879633</v>
+        <v>0.06570154610548699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H9">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I9">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J9">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>109.192030882594</v>
+        <v>109.467855</v>
       </c>
       <c r="N9">
-        <v>109.192030882594</v>
+        <v>328.403565</v>
       </c>
       <c r="O9">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="P9">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="Q9">
-        <v>1515.26302087544</v>
+        <v>1530.7824290346</v>
       </c>
       <c r="R9">
-        <v>1515.26302087544</v>
+        <v>13777.0418613114</v>
       </c>
       <c r="S9">
-        <v>0.1175757410061188</v>
+        <v>0.06819447006342202</v>
       </c>
       <c r="T9">
-        <v>0.1175757410061188</v>
+        <v>0.06819447006342201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H10">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I10">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J10">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8236318890376</v>
+        <v>8.872125666666667</v>
       </c>
       <c r="N10">
-        <v>6.8236318890376</v>
+        <v>26.616377</v>
       </c>
       <c r="O10">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546648</v>
       </c>
       <c r="P10">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546647</v>
       </c>
       <c r="Q10">
-        <v>94.69186520253014</v>
+        <v>124.0665040775689</v>
       </c>
       <c r="R10">
-        <v>94.69186520253014</v>
+        <v>1116.59853669812</v>
       </c>
       <c r="S10">
-        <v>0.00734754697043069</v>
+        <v>0.005527009807348634</v>
       </c>
       <c r="T10">
-        <v>0.00734754697043069</v>
+        <v>0.005527009807348633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H11">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I11">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J11">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9025960634394</v>
+        <v>17.47952633333334</v>
       </c>
       <c r="N11">
-        <v>13.9025960634394</v>
+        <v>52.438579</v>
       </c>
       <c r="O11">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="P11">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="Q11">
-        <v>192.9269887080768</v>
+        <v>244.4311325814712</v>
       </c>
       <c r="R11">
-        <v>192.9269887080768</v>
+        <v>2199.88019323324</v>
       </c>
       <c r="S11">
-        <v>0.01497003051280554</v>
+        <v>0.01088910562156623</v>
       </c>
       <c r="T11">
-        <v>0.01497003051280554</v>
+        <v>0.01088910562156623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H12">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I12">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J12">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.7848755068631</v>
+        <v>15.961975</v>
       </c>
       <c r="N12">
-        <v>15.7848755068631</v>
+        <v>47.885925</v>
       </c>
       <c r="O12">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885857</v>
       </c>
       <c r="P12">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885856</v>
       </c>
       <c r="Q12">
-        <v>219.0474703267458</v>
+        <v>223.2099173103334</v>
       </c>
       <c r="R12">
-        <v>219.0474703267458</v>
+        <v>2008.889255793</v>
       </c>
       <c r="S12">
-        <v>0.01699683044089814</v>
+        <v>0.009943726642771898</v>
       </c>
       <c r="T12">
-        <v>0.01699683044089814</v>
+        <v>0.009943726642771895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.8770476986978</v>
+        <v>13.98385333333333</v>
       </c>
       <c r="H13">
-        <v>13.8770476986978</v>
+        <v>41.95156</v>
       </c>
       <c r="I13">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="J13">
-        <v>0.3438997519312758</v>
+        <v>0.2160572494266095</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>81.4492839651403</v>
+        <v>89.57410466666666</v>
       </c>
       <c r="N13">
-        <v>81.4492839651403</v>
+        <v>268.722314</v>
       </c>
       <c r="O13">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="P13">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="Q13">
-        <v>1130.275598609034</v>
+        <v>1252.591142123315</v>
       </c>
       <c r="R13">
-        <v>1130.275598609034</v>
+        <v>11273.32027910984</v>
       </c>
       <c r="S13">
-        <v>0.08770291970222632</v>
+        <v>0.05580139118601374</v>
       </c>
       <c r="T13">
-        <v>0.08770291970222632</v>
+        <v>0.05580139118601374</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H14">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I14">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J14">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>92.2256439706031</v>
+        <v>105.466137</v>
       </c>
       <c r="N14">
-        <v>92.2256439706031</v>
+        <v>316.398411</v>
       </c>
       <c r="O14">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862459</v>
       </c>
       <c r="P14">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862458</v>
       </c>
       <c r="Q14">
-        <v>375.6715681150135</v>
+        <v>2.347113723556</v>
       </c>
       <c r="R14">
-        <v>375.6715681150135</v>
+        <v>21.124023512004</v>
       </c>
       <c r="S14">
-        <v>0.02914996432139833</v>
+        <v>0.0001045610228603355</v>
       </c>
       <c r="T14">
-        <v>0.02914996432139833</v>
+        <v>0.0001045610228603354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H15">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I15">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J15">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>109.192030882594</v>
+        <v>109.467855</v>
       </c>
       <c r="N15">
-        <v>109.192030882594</v>
+        <v>328.403565</v>
       </c>
       <c r="O15">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="P15">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="Q15">
-        <v>444.7823804884712</v>
+        <v>2.43617062374</v>
       </c>
       <c r="R15">
-        <v>444.7823804884712</v>
+        <v>21.92553561366</v>
       </c>
       <c r="S15">
-        <v>0.03451256795152553</v>
+        <v>0.0001085283979740994</v>
       </c>
       <c r="T15">
-        <v>0.03451256795152553</v>
+        <v>0.0001085283979740994</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H16">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I16">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J16">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.8236318890376</v>
+        <v>8.872125666666667</v>
       </c>
       <c r="N16">
-        <v>6.8236318890376</v>
+        <v>26.616377</v>
       </c>
       <c r="O16">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546648</v>
       </c>
       <c r="P16">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546647</v>
       </c>
       <c r="Q16">
-        <v>27.79535475850366</v>
+        <v>0.1974461993364445</v>
       </c>
       <c r="R16">
-        <v>27.79535475850366</v>
+        <v>1.777015794028</v>
       </c>
       <c r="S16">
-        <v>0.002156760501137883</v>
+        <v>8.79598476857176E-06</v>
       </c>
       <c r="T16">
-        <v>0.002156760501137883</v>
+        <v>8.795984768571757E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H17">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I17">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J17">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9025960634394</v>
+        <v>17.47952633333334</v>
       </c>
       <c r="N17">
-        <v>13.9025960634394</v>
+        <v>52.438579</v>
       </c>
       <c r="O17">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="P17">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="Q17">
-        <v>56.63077902374596</v>
+        <v>0.3890010320395557</v>
       </c>
       <c r="R17">
-        <v>56.63077902374596</v>
+        <v>3.501009288356001</v>
       </c>
       <c r="S17">
-        <v>0.004394224445353268</v>
+        <v>1.732951641651104E-05</v>
       </c>
       <c r="T17">
-        <v>0.004394224445353268</v>
+        <v>1.732951641651104E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H18">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I18">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J18">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.7848755068631</v>
+        <v>15.961975</v>
       </c>
       <c r="N18">
-        <v>15.7848755068631</v>
+        <v>47.885925</v>
       </c>
       <c r="O18">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885857</v>
       </c>
       <c r="P18">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885856</v>
       </c>
       <c r="Q18">
-        <v>64.29804855636131</v>
+        <v>0.3552284329666667</v>
       </c>
       <c r="R18">
-        <v>64.29804855636131</v>
+        <v>3.1970558967</v>
       </c>
       <c r="S18">
-        <v>0.004989160693629199</v>
+        <v>1.582498876270687E-05</v>
       </c>
       <c r="T18">
-        <v>0.004989160693629199</v>
+        <v>1.582498876270687E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.07339598772288</v>
+        <v>0.02225466666666667</v>
       </c>
       <c r="H19">
-        <v>4.07339598772288</v>
+        <v>0.066764</v>
       </c>
       <c r="I19">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="J19">
-        <v>0.1009465341700314</v>
+        <v>0.0003438452872960662</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>81.4492839651403</v>
+        <v>89.57410466666666</v>
       </c>
       <c r="N19">
-        <v>81.4492839651403</v>
+        <v>268.722314</v>
       </c>
       <c r="O19">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="P19">
-        <v>0.2550246669551326</v>
+        <v>0.2582713208378986</v>
       </c>
       <c r="Q19">
-        <v>331.775186506504</v>
+        <v>1.993441841321778</v>
       </c>
       <c r="R19">
-        <v>331.775186506504</v>
+        <v>17.940976571896</v>
       </c>
       <c r="S19">
-        <v>0.02574385625698716</v>
+        <v>8.880537651384173E-05</v>
       </c>
       <c r="T19">
-        <v>0.02574385625698716</v>
+        <v>8.880537651384171E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H20">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I20">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J20">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>92.2256439706031</v>
+        <v>105.466137</v>
       </c>
       <c r="N20">
-        <v>92.2256439706031</v>
+        <v>316.398411</v>
       </c>
       <c r="O20">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862459</v>
       </c>
       <c r="P20">
-        <v>0.2887663708424005</v>
+        <v>0.3040932265862458</v>
       </c>
       <c r="Q20">
-        <v>2043.455235262433</v>
+        <v>6.801616641267</v>
       </c>
       <c r="R20">
-        <v>2043.455235262433</v>
+        <v>61.21454977140301</v>
       </c>
       <c r="S20">
-        <v>0.1585604348478082</v>
+        <v>0.0003030036363288252</v>
       </c>
       <c r="T20">
-        <v>0.1585604348478082</v>
+        <v>0.0003030036363288251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H21">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I21">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J21">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>109.192030882594</v>
+        <v>109.467855</v>
       </c>
       <c r="N21">
-        <v>109.192030882594</v>
+        <v>328.403565</v>
       </c>
       <c r="O21">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="P21">
-        <v>0.3418895778372497</v>
+        <v>0.3156314830647993</v>
       </c>
       <c r="Q21">
-        <v>2419.381611768374</v>
+        <v>7.059691436805001</v>
       </c>
       <c r="R21">
-        <v>2419.381611768374</v>
+        <v>63.537222931245</v>
       </c>
       <c r="S21">
-        <v>0.1877301708424838</v>
+        <v>0.0003145005503151838</v>
       </c>
       <c r="T21">
-        <v>0.1877301708424838</v>
+        <v>0.0003145005503151837</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H22">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I22">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J22">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.8236318890376</v>
+        <v>8.872125666666667</v>
       </c>
       <c r="N22">
-        <v>6.8236318890376</v>
+        <v>26.616377</v>
       </c>
       <c r="O22">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546648</v>
       </c>
       <c r="P22">
-        <v>0.02136537444173268</v>
+        <v>0.02558122822546647</v>
       </c>
       <c r="Q22">
-        <v>151.1920731245004</v>
+        <v>0.572172256369</v>
       </c>
       <c r="R22">
-        <v>151.1920731245004</v>
+        <v>5.149550307321</v>
       </c>
       <c r="S22">
-        <v>0.01173163984533463</v>
+        <v>2.548956864672404E-05</v>
       </c>
       <c r="T22">
-        <v>0.01173163984533463</v>
+        <v>2.548956864672403E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H23">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I23">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J23">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.9025960634394</v>
+        <v>17.47952633333334</v>
       </c>
       <c r="N23">
-        <v>13.9025960634394</v>
+        <v>52.438579</v>
       </c>
       <c r="O23">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="P23">
-        <v>0.04353021608400905</v>
+        <v>0.05039916804673129</v>
       </c>
       <c r="Q23">
-        <v>308.0415759268604</v>
+        <v>1.127272132763</v>
       </c>
       <c r="R23">
-        <v>308.0415759268604</v>
+        <v>10.145449194867</v>
       </c>
       <c r="S23">
-        <v>0.02390226386529792</v>
+        <v>5.02185838124085E-05</v>
       </c>
       <c r="T23">
-        <v>0.02390226386529792</v>
+        <v>5.021858381240848E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>22.1571262317646</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="H24">
-        <v>22.1571262317646</v>
+        <v>0.193473</v>
       </c>
       <c r="I24">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317929</v>
       </c>
       <c r="J24">
-        <v>0.5490959157925819</v>
+        <v>0.0009964169203317927</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.7848755068631</v>
+        <v>15.961975</v>
       </c>
       <c r="N24">
-        <v>15.7848755068631</v>
+        <v>47.885925</v>
       </c>
       <c r="O24">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885857</v>
       </c>
       <c r="P24">
-        <v>0.0494237938394755</v>
+        <v>0.04602357323885856</v>
       </c>
       <c r="Q24">
-        <v>349.7474791582549</v>
+        <v>1.029403729725</v>
       </c>
       <c r="R24">
-        <v>349.7474791582549</v>
+        <v>9.264633567525001</v>
       </c>
       <c r="S24">
-        <v>0.02713840334023057</v>
+        <v>4.585866710932818E-05</v>
       </c>
       <c r="T24">
-        <v>0.02713840334023057</v>
+        <v>4.585866710932816E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.193473</v>
+      </c>
+      <c r="I25">
+        <v>0.0009964169203317929</v>
+      </c>
+      <c r="J25">
+        <v>0.0009964169203317927</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>89.57410466666666</v>
+      </c>
+      <c r="N25">
+        <v>268.722314</v>
+      </c>
+      <c r="O25">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="P25">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="Q25">
+        <v>5.776723584058</v>
+      </c>
+      <c r="R25">
+        <v>51.990512256522</v>
+      </c>
+      <c r="S25">
+        <v>0.0002573459141193233</v>
+      </c>
+      <c r="T25">
+        <v>0.0002573459141193232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.216979</v>
+      </c>
+      <c r="H26">
+        <v>12.650937</v>
+      </c>
+      <c r="I26">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J26">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>105.466137</v>
+      </c>
+      <c r="N26">
+        <v>316.398411</v>
+      </c>
+      <c r="O26">
+        <v>0.3040932265862459</v>
+      </c>
+      <c r="P26">
+        <v>0.3040932265862458</v>
+      </c>
+      <c r="Q26">
+        <v>444.748484940123</v>
+      </c>
+      <c r="R26">
+        <v>4002.736364461107</v>
+      </c>
+      <c r="S26">
+        <v>0.01981299671771709</v>
+      </c>
+      <c r="T26">
+        <v>0.01981299671771709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.216979</v>
+      </c>
+      <c r="H27">
+        <v>12.650937</v>
+      </c>
+      <c r="I27">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J27">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>109.467855</v>
+      </c>
+      <c r="N27">
+        <v>328.403565</v>
+      </c>
+      <c r="O27">
+        <v>0.3156314830647993</v>
+      </c>
+      <c r="P27">
+        <v>0.3156314830647993</v>
+      </c>
+      <c r="Q27">
+        <v>461.623645710045</v>
+      </c>
+      <c r="R27">
+        <v>4154.612811390405</v>
+      </c>
+      <c r="S27">
+        <v>0.02056476432630248</v>
+      </c>
+      <c r="T27">
+        <v>0.02056476432630248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.216979</v>
+      </c>
+      <c r="H28">
+        <v>12.650937</v>
+      </c>
+      <c r="I28">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J28">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.872125666666667</v>
+      </c>
+      <c r="N28">
+        <v>26.616377</v>
+      </c>
+      <c r="O28">
+        <v>0.02558122822546648</v>
+      </c>
+      <c r="P28">
+        <v>0.02558122822546647</v>
+      </c>
+      <c r="Q28">
+        <v>37.41356762169434</v>
+      </c>
+      <c r="R28">
+        <v>336.722108595249</v>
+      </c>
+      <c r="S28">
+        <v>0.00166672831406388</v>
+      </c>
+      <c r="T28">
+        <v>0.00166672831406388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.216979</v>
+      </c>
+      <c r="H29">
+        <v>12.650937</v>
+      </c>
+      <c r="I29">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J29">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.47952633333334</v>
+      </c>
+      <c r="N29">
+        <v>52.438579</v>
+      </c>
+      <c r="O29">
+        <v>0.05039916804673129</v>
+      </c>
+      <c r="P29">
+        <v>0.05039916804673129</v>
+      </c>
+      <c r="Q29">
+        <v>73.71079547761369</v>
+      </c>
+      <c r="R29">
+        <v>663.3971592985231</v>
+      </c>
+      <c r="S29">
+        <v>0.003283725067787235</v>
+      </c>
+      <c r="T29">
+        <v>0.003283725067787234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.216979</v>
+      </c>
+      <c r="H30">
+        <v>12.650937</v>
+      </c>
+      <c r="I30">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J30">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.961975</v>
+      </c>
+      <c r="N30">
+        <v>47.885925</v>
+      </c>
+      <c r="O30">
+        <v>0.04602357323885857</v>
+      </c>
+      <c r="P30">
+        <v>0.04602357323885856</v>
+      </c>
+      <c r="Q30">
+        <v>67.31131337352501</v>
+      </c>
+      <c r="R30">
+        <v>605.801820361725</v>
+      </c>
+      <c r="S30">
+        <v>0.002998636029337855</v>
+      </c>
+      <c r="T30">
+        <v>0.002998636029337854</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.216979</v>
+      </c>
+      <c r="H31">
+        <v>12.650937</v>
+      </c>
+      <c r="I31">
+        <v>0.06515435065798086</v>
+      </c>
+      <c r="J31">
+        <v>0.06515435065798085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>89.57410466666666</v>
+      </c>
+      <c r="N31">
+        <v>268.722314</v>
+      </c>
+      <c r="O31">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="P31">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="Q31">
+        <v>377.7321183231353</v>
+      </c>
+      <c r="R31">
+        <v>3399.589064908218</v>
+      </c>
+      <c r="S31">
+        <v>0.01682750020277232</v>
+      </c>
+      <c r="T31">
+        <v>0.01682750020277232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H32">
+        <v>138.527021</v>
+      </c>
+      <c r="I32">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J32">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>105.466137</v>
+      </c>
+      <c r="N32">
+        <v>316.398411</v>
+      </c>
+      <c r="O32">
+        <v>0.3040932265862459</v>
+      </c>
+      <c r="P32">
+        <v>0.3040932265862458</v>
+      </c>
+      <c r="Q32">
+        <v>4869.969924995959</v>
+      </c>
+      <c r="R32">
+        <v>43829.72932496363</v>
+      </c>
+      <c r="S32">
+        <v>0.2169511564549034</v>
+      </c>
+      <c r="T32">
+        <v>0.2169511564549033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H33">
+        <v>138.527021</v>
+      </c>
+      <c r="I33">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J33">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>109.467855</v>
+      </c>
+      <c r="N33">
+        <v>328.403565</v>
+      </c>
+      <c r="O33">
+        <v>0.3156314830647993</v>
+      </c>
+      <c r="P33">
+        <v>0.3156314830647993</v>
+      </c>
+      <c r="Q33">
+        <v>5054.751949469985</v>
+      </c>
+      <c r="R33">
+        <v>45492.76754522986</v>
+      </c>
+      <c r="S33">
+        <v>0.2251829678457615</v>
+      </c>
+      <c r="T33">
+        <v>0.2251829678457614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H34">
+        <v>138.527021</v>
+      </c>
+      <c r="I34">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J34">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.872125666666667</v>
+      </c>
+      <c r="N34">
+        <v>26.616377</v>
+      </c>
+      <c r="O34">
+        <v>0.02558122822546648</v>
+      </c>
+      <c r="P34">
+        <v>0.02558122822546647</v>
+      </c>
+      <c r="Q34">
+        <v>409.6763795136574</v>
+      </c>
+      <c r="R34">
+        <v>3687.087415622917</v>
+      </c>
+      <c r="S34">
+        <v>0.01825057765789377</v>
+      </c>
+      <c r="T34">
+        <v>0.01825057765789377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>22.1571262317646</v>
-      </c>
-      <c r="H25">
-        <v>22.1571262317646</v>
-      </c>
-      <c r="I25">
-        <v>0.5490959157925819</v>
-      </c>
-      <c r="J25">
-        <v>0.5490959157925819</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>81.4492839651403</v>
-      </c>
-      <c r="N25">
-        <v>81.4492839651403</v>
-      </c>
-      <c r="O25">
-        <v>0.2550246669551326</v>
-      </c>
-      <c r="P25">
-        <v>0.2550246669551326</v>
-      </c>
-      <c r="Q25">
-        <v>1804.682066302454</v>
-      </c>
-      <c r="R25">
-        <v>1804.682066302454</v>
-      </c>
-      <c r="S25">
-        <v>0.1400330030514267</v>
-      </c>
-      <c r="T25">
-        <v>0.1400330030514267</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H35">
+        <v>138.527021</v>
+      </c>
+      <c r="I35">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J35">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17.47952633333334</v>
+      </c>
+      <c r="N35">
+        <v>52.438579</v>
+      </c>
+      <c r="O35">
+        <v>0.05039916804673129</v>
+      </c>
+      <c r="P35">
+        <v>0.05039916804673129</v>
+      </c>
+      <c r="Q35">
+        <v>807.1289038159066</v>
+      </c>
+      <c r="R35">
+        <v>7264.160134343159</v>
+      </c>
+      <c r="S35">
+        <v>0.03595659763569992</v>
+      </c>
+      <c r="T35">
+        <v>0.03595659763569992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H36">
+        <v>138.527021</v>
+      </c>
+      <c r="I36">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J36">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.961975</v>
+      </c>
+      <c r="N36">
+        <v>47.885925</v>
+      </c>
+      <c r="O36">
+        <v>0.04602357323885857</v>
+      </c>
+      <c r="P36">
+        <v>0.04602357323885856</v>
+      </c>
+      <c r="Q36">
+        <v>737.0549486754916</v>
+      </c>
+      <c r="R36">
+        <v>6633.494538079424</v>
+      </c>
+      <c r="S36">
+        <v>0.03283488932143458</v>
+      </c>
+      <c r="T36">
+        <v>0.03283488932143457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>46.17567366666666</v>
+      </c>
+      <c r="H37">
+        <v>138.527021</v>
+      </c>
+      <c r="I37">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="J37">
+        <v>0.7134363329640703</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>89.57410466666666</v>
+      </c>
+      <c r="N37">
+        <v>268.722314</v>
+      </c>
+      <c r="O37">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="P37">
+        <v>0.2582713208378986</v>
+      </c>
+      <c r="Q37">
+        <v>4136.144626071843</v>
+      </c>
+      <c r="R37">
+        <v>37225.30163464659</v>
+      </c>
+      <c r="S37">
+        <v>0.1842601440483772</v>
+      </c>
+      <c r="T37">
+        <v>0.1842601440483772</v>
       </c>
     </row>
   </sheetData>
